--- a/others/Thermal Erosion benchmark.xlsx
+++ b/others/Thermal Erosion benchmark.xlsx
@@ -419,7 +419,6 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -429,8 +428,8 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="551331152"/>
-        <c:axId val="551331936"/>
+        <c:axId val="476489304"/>
+        <c:axId val="476494008"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -493,7 +492,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="551331152"/>
+        <c:axId val="476489304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +605,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551331936"/>
+        <c:crossAx val="476494008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -614,7 +613,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="551331936"/>
+        <c:axId val="476494008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -713,7 +712,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551331152"/>
+        <c:crossAx val="476489304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1171,11 +1170,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="552331616"/>
-        <c:axId val="552332008"/>
+        <c:axId val="476494792"/>
+        <c:axId val="476490480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="552331616"/>
+        <c:axId val="476494792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1215,14 +1214,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
+                  <a:rPr lang="fr-FR" sz="1800"/>
                   <a:t>Grid</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:rPr lang="fr-FR" sz="1800" baseline="0"/>
                   <a:t> resolution</a:t>
                 </a:r>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="fr-FR" sz="1800"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1293,7 +1292,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552332008"/>
+        <c:crossAx val="476490480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1301,7 +1300,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="552332008"/>
+        <c:axId val="476490480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1400,7 +1399,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552331616"/>
+        <c:crossAx val="476494792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2669,20 +2668,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>694765</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>145675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>746014</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>148541</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>149474</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Image 7"/>
+        <xdr:cNvPr id="2" name="Image 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2695,46 +2694,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3200400" y="6791325"/>
-          <a:ext cx="4584589" cy="3834716"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>12589</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>24716</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Image 13"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8562975" y="6286500"/>
-          <a:ext cx="4584589" cy="3834716"/>
+          <a:off x="4684059" y="5860675"/>
+          <a:ext cx="10253382" cy="8576299"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3011,8 +2972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/others/Thermal Erosion benchmark.xlsx
+++ b/others/Thermal Erosion benchmark.xlsx
@@ -210,7 +210,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$3</c:f>
+              <c:f>Feuil1!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -234,11 +234,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Feuil1!$C$2:$H$2</c15:sqref>
+                    <c15:sqref>Feuil1!$B$2:$G$2</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Feuil1!$F$2:$H$2</c:f>
+              <c:f>Feuil1!$E$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -259,11 +259,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Feuil1!$C$3:$H$3</c15:sqref>
+                    <c15:sqref>Feuil1!$B$3:$G$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Feuil1!$F$3:$H$3</c:f>
+              <c:f>Feuil1!$E$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -285,7 +285,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$4</c:f>
+              <c:f>Feuil1!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -328,11 +328,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Feuil1!$C$4:$H$4</c15:sqref>
+                    <c15:sqref>Feuil1!$B$4:$G$4</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Feuil1!$F$4:$H$4</c:f>
+              <c:f>Feuil1!$E$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -354,7 +354,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$5</c:f>
+              <c:f>Feuil1!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -397,11 +397,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Feuil1!$C$5:$H$5</c15:sqref>
+                    <c15:sqref>Feuil1!$B$5:$G$5</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Feuil1!$F$5:$H$5</c:f>
+              <c:f>Feuil1!$E$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -428,8 +428,8 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="476489304"/>
-        <c:axId val="476494008"/>
+        <c:axId val="477806176"/>
+        <c:axId val="477806568"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -441,7 +441,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$B$6</c15:sqref>
+                          <c15:sqref>Feuil1!$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -470,10 +470,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Feuil1!$C$6:$F$6</c15:sqref>
+                          <c15:sqref>Feuil1!$B$6:$E$6</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$F$6</c15:sqref>
+                          <c15:sqref>Feuil1!$E$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -492,7 +492,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="476489304"/>
+        <c:axId val="477806176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -605,7 +605,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476494008"/>
+        <c:crossAx val="477806568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -613,7 +613,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="476494008"/>
+        <c:axId val="477806568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -712,7 +712,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476489304"/>
+        <c:crossAx val="477806176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -875,7 +875,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$3</c:f>
+              <c:f>Feuil1!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -899,11 +899,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Feuil1!$C$2:$H$2</c15:sqref>
+                    <c15:sqref>Feuil1!$B$2:$G$2</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Feuil1!$C$2:$E$2</c:f>
+              <c:f>Feuil1!$B$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -924,11 +924,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Feuil1!$C$3:$H$3</c15:sqref>
+                    <c15:sqref>Feuil1!$B$3:$G$3</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Feuil1!$C$3:$E$3</c:f>
+              <c:f>Feuil1!$B$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -950,7 +950,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$4</c:f>
+              <c:f>Feuil1!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -993,11 +993,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Feuil1!$C$4:$H$4</c15:sqref>
+                    <c15:sqref>Feuil1!$B$4:$G$4</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Feuil1!$C$4:$E$4</c:f>
+              <c:f>Feuil1!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1019,7 +1019,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$5</c:f>
+              <c:f>Feuil1!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1062,11 +1062,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Feuil1!$C$5:$H$5</c15:sqref>
+                    <c15:sqref>Feuil1!$B$5:$G$5</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Feuil1!$C$5:$E$5</c:f>
+              <c:f>Feuil1!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1088,7 +1088,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$6</c:f>
+              <c:f>Feuil1!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1139,11 +1139,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Feuil1!$C$6:$F$6</c15:sqref>
+                    <c15:sqref>Feuil1!$B$6:$E$6</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Feuil1!$C$6:$E$6</c:f>
+              <c:f>Feuil1!$B$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1170,11 +1170,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="476494792"/>
-        <c:axId val="476490480"/>
+        <c:axId val="477803432"/>
+        <c:axId val="477804608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="476494792"/>
+        <c:axId val="477803432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1292,7 +1292,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476490480"/>
+        <c:crossAx val="477804608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1300,7 +1300,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="476490480"/>
+        <c:axId val="477804608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1399,7 +1399,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476494792"/>
+        <c:crossAx val="477803432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2606,16 +2606,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>223837</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552883</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>3463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>223837</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>379701</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>12988</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2636,16 +2636,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>494433</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>154133</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>321251</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>163658</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2664,44 +2664,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>694765</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>145675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>280147</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>149474</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4684059" y="5860675"/>
-          <a:ext cx="10253382" cy="8576299"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2970,129 +2932,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H6"/>
+  <dimension ref="A2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="1">
+        <v>128</v>
+      </c>
       <c r="C2" s="1">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="D2" s="1">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E2" s="1">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="F2" s="1">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="G2" s="1">
-        <v>2048</v>
-      </c>
-      <c r="H2" s="1">
         <v>4096</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="2">
+        <v>0.27900000000000003</v>
+      </c>
       <c r="C3" s="2">
-        <v>0.27900000000000003</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="D3" s="2">
-        <v>0.44600000000000001</v>
+        <v>1.3540000000000001</v>
       </c>
       <c r="E3" s="2">
-        <v>1.3540000000000001</v>
+        <v>6.5119999999999996</v>
       </c>
       <c r="F3" s="2">
-        <v>6.5119999999999996</v>
+        <v>23.875</v>
       </c>
       <c r="G3" s="2">
-        <v>23.875</v>
-      </c>
-      <c r="H3" s="2">
         <v>102.011</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="2">
+        <v>0.22800000000000001</v>
+      </c>
       <c r="C4" s="2">
-        <v>0.22800000000000001</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="D4" s="2">
-        <v>0.55100000000000005</v>
+        <v>1.954</v>
       </c>
       <c r="E4" s="2">
-        <v>1.954</v>
+        <v>8.9</v>
       </c>
       <c r="F4" s="2">
-        <v>8.9</v>
+        <v>38.82</v>
       </c>
       <c r="G4" s="2">
-        <v>38.82</v>
-      </c>
-      <c r="H4" s="2">
         <v>162.50899999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B5" s="2">
+        <v>0.29799999999999999</v>
+      </c>
       <c r="C5" s="2">
-        <v>0.29799999999999999</v>
+        <v>0.753</v>
       </c>
       <c r="D5" s="2">
-        <v>0.753</v>
+        <v>2.91</v>
       </c>
       <c r="E5" s="2">
-        <v>2.91</v>
+        <v>13.718999999999999</v>
       </c>
       <c r="F5" s="2">
-        <v>13.718999999999999</v>
+        <v>57.813000000000002</v>
       </c>
       <c r="G5" s="2">
-        <v>57.813000000000002</v>
-      </c>
-      <c r="H5" s="2">
         <v>212.53</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B6" s="2">
+        <v>0.40300000000000002</v>
+      </c>
       <c r="C6" s="2">
-        <v>0.40300000000000002</v>
+        <v>1.55</v>
       </c>
       <c r="D6" s="2">
-        <v>1.55</v>
+        <v>5.907</v>
       </c>
       <c r="E6" s="2">
-        <v>5.907</v>
+        <v>27.629000000000001</v>
       </c>
       <c r="F6" s="2">
-        <v>27.629000000000001</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
         <v>0</v>
       </c>
     </row>

--- a/others/Thermal Erosion benchmark.xlsx
+++ b/others/Thermal Erosion benchmark.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Website\others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\moon519.github.io\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -428,8 +428,8 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="477806176"/>
-        <c:axId val="477806568"/>
+        <c:axId val="483337144"/>
+        <c:axId val="483338712"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -492,7 +492,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="477806176"/>
+        <c:axId val="483337144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -605,7 +605,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477806568"/>
+        <c:crossAx val="483338712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -613,7 +613,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="477806568"/>
+        <c:axId val="483338712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -712,7 +712,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477806176"/>
+        <c:crossAx val="483337144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1170,11 +1170,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="477803432"/>
-        <c:axId val="477804608"/>
+        <c:axId val="483339496"/>
+        <c:axId val="483339888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="477803432"/>
+        <c:axId val="483339496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1214,14 +1214,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR" sz="1800"/>
+                  <a:rPr lang="fr-FR" sz="900"/>
                   <a:t>Grid</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="fr-FR" sz="1800" baseline="0"/>
+                  <a:rPr lang="fr-FR" sz="900" baseline="0"/>
                   <a:t> resolution</a:t>
                 </a:r>
-                <a:endParaRPr lang="fr-FR" sz="1800"/>
+                <a:endParaRPr lang="fr-FR" sz="900"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1292,7 +1292,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477804608"/>
+        <c:crossAx val="483339888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1300,7 +1300,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="477804608"/>
+        <c:axId val="483339888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1399,7 +1399,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477803432"/>
+        <c:crossAx val="483339496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2934,8 +2934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
